--- a/target/test-classes/utilities/LeasonsSearchingResult.xlsx
+++ b/target/test-classes/utilities/LeasonsSearchingResult.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\Automation\Nagwa.task\src\test\java\utilities\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92709565-967E-461E-94B9-544A5363AD2A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{FE49F18C-6C31-4410-80F9-3C99F6A828C7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="101">
+  <si>
+    <t>Addition Polymerization
+In this lesson, we will learn how to define an addition polymerization and determine the structure of an addition polymer from the monomer reactant.</t>
+  </si>
+  <si>
+    <t>Properties of Addition
+In this lesson, we will learn how to identify the properties of addition we use when adding and use them to solve problems with numbers up to 20.</t>
+  </si>
+  <si>
+    <t>Addition Equations
+In this lesson, we will learn how to read, write, and model addition equations with numbers up to 10.</t>
+  </si>
   <si>
     <t>The Addition Symbol
 In this lesson, we will learn how to read, write, and model addition expressions with numbers up to 10 and represent addition using the plus sign.</t>
@@ -35,18 +43,6 @@
 In this lesson, we will learn how to add two or more vectors in two dimensions, using both graphical and algebraic methods.</t>
   </si>
   <si>
-    <t>Addition Equations
-In this lesson, we will learn how to read, write, and model addition equations with numbers up to 10.</t>
-  </si>
-  <si>
-    <t>Addition Polymerization
-In this lesson, we will learn how to define an addition polymerization and determine the structure of an addition polymer from the monomer reactant.</t>
-  </si>
-  <si>
-    <t>Properties of Addition
-In this lesson, we will learn how to identify the properties of addition we use when adding and use them to solve problems with numbers up to 20.</t>
-  </si>
-  <si>
     <t>Addition Patterns
 In this lesson, we will learn how to identify, describe, and make addition patterns using methods such as addition tables.</t>
   </si>
@@ -55,6 +51,22 @@
 In this lesson, we will learn how to solve addition problems presented vertically with sums up to 10.</t>
   </si>
   <si>
+    <t>Properties of Multiplication and Addition
+In this lesson, we will learn how to use the associative, commutative, and distributive properties to solve problems.</t>
+  </si>
+  <si>
+    <t>Related Addition Equations
+In this lesson, we will learn how to write a family of addition facts linking three numbers up to 10 and model them with part–whole models.</t>
+  </si>
+  <si>
+    <t>Addition of Rational Numbers
+In this lesson, we will learn how to add rational numbers, including fractions, decimals, and percentages.</t>
+  </si>
+  <si>
+    <t>Addition Reactions of Alkenes
+In this lesson, we will learn how to define addition reactions and write equations for the addition of water, hydrogen, and halogens to alkenes.</t>
+  </si>
+  <si>
     <t>Repeated Addition with Arrays
 In this lesson, we will learn how to make arrays with at most 5 rows or columns and write repeated addition sentences to describe the total number of objects.</t>
   </si>
@@ -63,20 +75,8 @@
 In this lesson, we will learn how to compare two addition sentences with sums up to 10 by modeling and comparing the parts.</t>
   </si>
   <si>
-    <t>Properties of Multiplication and Addition
-In this lesson, we will learn how to use the associative, commutative, and distributive properties to solve problems.</t>
-  </si>
-  <si>
     <t>Addition Reactions of Alkenes
-In this lesson, we will learn how to define addition reactions and write equations for the addition of water, hydrogen, and halogens to alkenes.</t>
-  </si>
-  <si>
-    <t>Related Addition Equations
-In this lesson, we will learn how to write a family of addition facts linking three numbers up to 10 and model them with part–whole models.</t>
-  </si>
-  <si>
-    <t>Addition of Rational Numbers
-In this lesson, we will learn how to add rational numbers, including fractions, decimals, and percentages.</t>
+In this lesson, we will learn how to describe addition reactions of alkenes and predict what products are formed.</t>
   </si>
   <si>
     <t>Properties of Addition and Subtraction
@@ -87,10 +87,6 @@
 In this lesson, we will learn how to use the commutative and associative properties to add three fractions or mixed numbers.</t>
   </si>
   <si>
-    <t>Addition Reactions of Alkenes
-In this lesson, we will learn how to describe addition reactions of alkenes and predict what products are formed.</t>
-  </si>
-  <si>
     <t>Variation Functions
 In this lesson, we will learn how to evaluate the variation function at a point for a given function.</t>
   </si>
@@ -99,30 +95,30 @@
 In this lesson, we will learn how to use properties of addition in the set of rational numbers and determine the additive inverse.</t>
   </si>
   <si>
+    <t>Addition and Subtraction of Algebraic Expressions
+In this lesson, we will learn how to add and subtract algebraic expressions by adding and subtracting like terms.</t>
+  </si>
+  <si>
+    <t>Addition of Numbers up to 1,000,000
+In this lesson, we will learn how to use the most appropriate strategy to add numbers with up to six digits.</t>
+  </si>
+  <si>
+    <t>Addition and Subtraction Expressions and Equations
+In this lesson, we will learn how to write addition and subtraction expressions and equations matching models and stories with no unknowns and how to write the correct symbol into equations to make them true.</t>
+  </si>
+  <si>
+    <t>Properties of Addition and Subtraction of Integers
+In this lesson, we will learn how to identify and use properties of addition and subtraction on integers.</t>
+  </si>
+  <si>
     <t>Missing Numbers in Addition Equations
 In this lesson, we will learn how to find the missing addend in an addition equation with numbers up to 10.</t>
   </si>
   <si>
-    <t>Properties of Addition and Subtraction of Integers
-In this lesson, we will learn how to identify and use properties of addition and subtraction on integers.</t>
-  </si>
-  <si>
-    <t>Addition and Subtraction of Algebraic Expressions
-In this lesson, we will learn how to add and subtract algebraic expressions by adding and subtracting like terms.</t>
-  </si>
-  <si>
     <t>Counting Principles: Addition Rule
 In this lesson, we will learn how to find the number of all possible outcomes of 2 or more events together using the addition counting principle.</t>
   </si>
   <si>
-    <t>Addition and Subtraction Expressions and Equations
-In this lesson, we will learn how to write addition and subtraction expressions and equations matching models and stories with no unknowns and how to write the correct symbol into equations to make them true.</t>
-  </si>
-  <si>
-    <t>Addition of Numbers up to 1,000,000
-In this lesson, we will learn how to use the most appropriate strategy to add numbers with up to six digits.</t>
-  </si>
-  <si>
     <t>Addition of Numbers up to 100,000
 In this lesson, we will learn how use the most appropriate strategy to add numbers with up to five digits.</t>
   </si>
@@ -135,6 +131,10 @@
 In this lesson, we will learn how to determine whether two given figures are similar or congruent.</t>
   </si>
   <si>
+    <t>Additive Comparison with Numbers up to 100
+In this lesson, we will learn how to solve addition problems with numbers up to 100 by finding either the missing part or the whole and also solve additive comparison problems.</t>
+  </si>
+  <si>
     <t>One-step Equations: Addition and Subtraction
 In this lesson, we will learn how to write and solve one-step addition and subtraction equations in questions including word problems.</t>
   </si>
@@ -143,10 +143,6 @@
 In this lesson, we will learn how to multiply numbers up to 100 using repeated addition to find the product.</t>
   </si>
   <si>
-    <t>Additive Comparison with Numbers up to 100
-In this lesson, we will learn how to solve addition problems with numbers up to 100 by finding either the missing part or the whole and also solve additive comparison problems.</t>
-  </si>
-  <si>
     <t>Additive Comparison with Numbers up to 1000
 In this lesson, we will learn how to draw a bar model to decide which operations are needed to solve a word problem and how to write an equation to record the solution.</t>
   </si>
@@ -159,14 +155,14 @@
 In this lesson, we will learn how to solve one-step linear inequalities by addition or subtraction.</t>
   </si>
   <si>
+    <t>Mental Addition of Numbers up to 10,000
+In this lesson, we will learn how to use different strategies to add numbers with up to four digits efficiently.</t>
+  </si>
+  <si>
     <t>Mental Addition of Numbers up to 1000
 In this lesson, we will learn how to add two- and three-digit numbers using mental strategies rather than the column method.</t>
   </si>
   <si>
-    <t>Mental Addition of Numbers up to 10,000
-In this lesson, we will learn how to use different strategies to add numbers with up to four digits efficiently.</t>
-  </si>
-  <si>
     <t>Column Addition with Three or More Decimals
 In this lesson, we will learn how to add three or more decimal numbers with up to two decimal places using the column method.</t>
   </si>
@@ -179,14 +175,14 @@
 In this lesson, we will learn how to solve addition problems with numbers up to 20 by finding either the missing part or the whole and how to solve additive comparison problems.</t>
   </si>
   <si>
+    <t>Ammeters
+In this lesson, we will learn how to use ammeters in electric circuits to measure the current through a component in the circuit.</t>
+  </si>
+  <si>
     <t>Protein Synthesis
 In this lesson, we will learn how to describe the processes of transcription and translation, and explain how DNA controls protein synthesis.</t>
   </si>
   <si>
-    <t>Ammeters
-In this lesson, we will learn how to use ammeters in electric circuits to measure the current through a component in the circuit.</t>
-  </si>
-  <si>
     <t>Properties of Operations on Vectors
 In this lesson, we will learn how to use the properties of addition and multiplication on vectors.</t>
   </si>
@@ -195,34 +191,34 @@
 In this lesson, we will learn how to apply addition and subtraction on integers with absolute values.</t>
   </si>
   <si>
+    <t>Relating Addition to Subtraction: Numbers up to 20
+In this lesson, we will learn how to write a family of addition and subtraction facts linking three numbers up to 20.</t>
+  </si>
+  <si>
+    <t>Column Addition of Numbers up to 10,000: Regrouping
+In this lesson, we will learn how to use the standard algorithm to add numbers with up to four digits when we have to regroup.</t>
+  </si>
+  <si>
+    <t>Column Addition of Numbers up to 10,000: No Regrouping
+In this lesson, we will learn how to use the standard algorithm to add numbers with up to four digits when we do not need to regroup.</t>
+  </si>
+  <si>
+    <t>Relating Addition to Subtraction: Numbers up to 10
+In this lesson, we will learn how to write a family of addition and subtraction facts linking three numbers up to 10.</t>
+  </si>
+  <si>
+    <t>Relating Addition to Subtraction: Numbers up to 1000
+In this lesson, we will learn how to use the relationship between addition and subtraction to check answers to problems with numbers up to 1000.</t>
+  </si>
+  <si>
+    <t>Column Addition of Three-Digit Numbers: No Regrouping
+In this lesson, we will learn how to add two three-digit numbers when we do not have to regroup and record the calculation in columns.</t>
+  </si>
+  <si>
     <t>Addition of Three or More Two-Digit Numbers
 In this lesson, we will learn how to add more than two two-digit numbers and record the calculation and any regrouping in columns using the standard algorithm, where the result does not exceed 100.</t>
   </si>
   <si>
-    <t>Relating Addition to Subtraction: Numbers up to 20
-In this lesson, we will learn how to write a family of addition and subtraction facts linking three numbers up to 20.</t>
-  </si>
-  <si>
-    <t>Column Addition of Numbers up to 10,000: Regrouping
-In this lesson, we will learn how to use the standard algorithm to add numbers with up to four digits when we have to regroup.</t>
-  </si>
-  <si>
-    <t>Column Addition of Three-Digit Numbers: No Regrouping
-In this lesson, we will learn how to add two three-digit numbers when we do not have to regroup and record the calculation in columns.</t>
-  </si>
-  <si>
-    <t>Column Addition of Numbers up to 10,000: No Regrouping
-In this lesson, we will learn how to use the standard algorithm to add numbers with up to four digits when we do not need to regroup.</t>
-  </si>
-  <si>
-    <t>Relating Addition to Subtraction: Numbers up to 10
-In this lesson, we will learn how to write a family of addition and subtraction facts linking three numbers up to 10.</t>
-  </si>
-  <si>
-    <t>Relating Addition to Subtraction: Numbers up to 1000
-In this lesson, we will learn how to use the relationship between addition and subtraction to check answers to problems with numbers up to 1000.</t>
-  </si>
-  <si>
     <t>Modeling Two-Step Addition and Subtraction Problems
 In this lesson, we will learn how to decide which operations are needed to solve a two-step word problem by drawing a model if necessary and how to write equations to record the solution with numbers up to 1000.</t>
   </si>
@@ -235,14 +231,14 @@
 In this lesson, we will learn how to predict the effect of changing the temperature, concentration, or pressure can have on the yield of industrial reactions and the financial consequences.</t>
   </si>
   <si>
+    <t>Comparing Number Sentences: Numbers up to 10
+In this lesson, we will learn how to compare addition and subtraction sentences with numbers up to 10.</t>
+  </si>
+  <si>
     <t>Comparing Number Sentences: Numbers up to 20
 In this lesson, we will learn how to compare addition and subtraction sentences with numbers up to 20.</t>
   </si>
   <si>
-    <t>Comparing Number Sentences: Numbers up to 10
-In this lesson, we will learn how to compare addition and subtraction sentences with numbers up to 10.</t>
-  </si>
-  <si>
     <t>Identifying Odd and Even Numbers: Additon Sentences
 In this lesson, we will learn how to write expressions of the form a+a or a+a+1 to prove whether a number up to 20 is even or odd.</t>
   </si>
@@ -267,46 +263,46 @@
 In this lesson, we will learn how to describe the correct method for volumetric titrations, calculating concentrations and troubleshooting errors.</t>
   </si>
   <si>
+    <t>Simplifying Expressions: Commutative and Associative Properties
+In this lesson, we will learn how to simplify algebraic expressions using the commutative and associative properties for addition and multiplication.</t>
+  </si>
+  <si>
+    <t>Reactions of Benzene
+In this lesson, we will learn how to describe addition and substitution reactions of benzene and predict what products are formed.</t>
+  </si>
+  <si>
+    <t>Column Addition of Three-Digit Numbers: Regroup Ones
+In this lesson, we will learn how to add two three-digit numbers when we have to regroup ones and record the calculation in columns.</t>
+  </si>
+  <si>
+    <t>Column Addition of Two-Digit Numbers: Partial Sums
+In this lesson, we will learn how to add two-digit numbers by adding the ones, the tens, and the results and record these calculations in columns.</t>
+  </si>
+  <si>
+    <t>Column Addition of Three-Digit Numbers: Regroup Tens
+In this lesson, we will learn how to add two three-digit numbers when we have to regroup tens and record the calculation in columns.</t>
+  </si>
+  <si>
     <t>Word Problems: Addition and Subtraction with Numbers up to 1000
 In this lesson, we will learn how to decide which operations are needed to solve a word problem by drawing a model if necessary and how to write an equation to record the solution.</t>
   </si>
   <si>
-    <t>Column Addition of Three-Digit Numbers: Regroup Tens
-In this lesson, we will learn how to add two three-digit numbers when we have to regroup tens and record the calculation in columns.</t>
-  </si>
-  <si>
     <t>Column Addition of Three-Digit Numbers: Partial Sums
 In this lesson, we will learn how to use place-value blocks and tables to add three-digit numbers by adding the hundreds, tens, and ones separately before finding the sum of these partial sums.</t>
   </si>
   <si>
-    <t>Column Addition of Three-Digit Numbers: Regroup Ones
-In this lesson, we will learn how to add two three-digit numbers when we have to regroup ones and record the calculation in columns.</t>
-  </si>
-  <si>
-    <t>Column Addition of Two-Digit Numbers: Partial Sums
-In this lesson, we will learn how to add two-digit numbers by adding the ones, the tens, and the results and record these calculations in columns.</t>
-  </si>
-  <si>
     <t>Word Problems: Addition and Subtraction with Numbers up to 1,000,000
 In this lesson, we will learn how to solve one- and two-step word problems by adding and subtracting numbers up to 1,000,000.</t>
   </si>
   <si>
-    <t>Simplifying Expressions: Commutative and Associative Properties
-In this lesson, we will learn how to simplify algebraic expressions using the commutative and associative properties for addition and multiplication.</t>
-  </si>
-  <si>
-    <t>Reactions of Benzene
-In this lesson, we will learn how to describe addition and substitution reactions of benzene and predict what products are formed.</t>
+    <t>Adding to Subtract Numbers on a Number Line up to 1000
+In this lesson, we will learn how to jump forward in hundreds, tens, and ones on a blank number line to subtract one three-digit number from another.</t>
   </si>
   <si>
     <t>Adding Tens on a Number Line
 In this lesson, we will learn how to add multiples of ten to a two-digit number using a number line with numbers up to 100.</t>
   </si>
   <si>
-    <t>Adding to Subtract Numbers on a Number Line up to 1000
-In this lesson, we will learn how to jump forward in hundreds, tens, and ones on a blank number line to subtract one three-digit number from another.</t>
-  </si>
-  <si>
     <t>Total Internal Reflection
 In this lesson, we will learn how to define total internal reflection (TIR) by describing rays produced by light rays incident at or past the critical angle for TIR.</t>
   </si>
@@ -319,34 +315,34 @@
 In this lesson, we will learn how to solve nuclear equations involving beta decay.</t>
   </si>
   <si>
+    <t>States of Matter
+In this lesson, we will learn how to describe the transitions between the three most common states of matter on the surface of the Earth: solid, liquid, and gas.</t>
+  </si>
+  <si>
+    <t>Making 10
+In this lesson, we will learn how to use pictures and addition equations to show all the ways to make the number 10.</t>
+  </si>
+  <si>
+    <t>Making Numbers up to 20
+In this lesson, we will learn how to make numbers up to 20 in multiple ways using both addition and subtraction.</t>
+  </si>
+  <si>
+    <t>Adding Numbers up to 5
+In this lesson, we will learn how to find the missing total in an addition equation when adding numbers up to 5.</t>
+  </si>
+  <si>
+    <t>Adding Numbers up to 10
+In this lesson, we will learn how to find the missing total in an addition equation when adding numbers up to 10.</t>
+  </si>
+  <si>
+    <t>Using Number Facts to Add
+In this lesson, we will learn how to use addition facts with sums to 20 to solve related problems with sums to 100.</t>
+  </si>
+  <si>
     <t>Word Problems: Comparison Problems
 In this lesson, we will learn how to solve additive and multiplicative comparison problems by drawing a bar model to help us choose the correct operation.</t>
   </si>
   <si>
-    <t>States of Matter
-In this lesson, we will learn how to describe the transitions between the three most common states of matter on the surface of the Earth: solid, liquid, and gas.</t>
-  </si>
-  <si>
-    <t>Adding Numbers up to 10
-In this lesson, we will learn how to find the missing total in an addition equation when adding numbers up to 10.</t>
-  </si>
-  <si>
-    <t>Making 10
-In this lesson, we will learn how to use pictures and addition equations to show all the ways to make the number 10.</t>
-  </si>
-  <si>
-    <t>Making Numbers up to 20
-In this lesson, we will learn how to make numbers up to 20 in multiple ways using both addition and subtraction.</t>
-  </si>
-  <si>
-    <t>Using Number Facts to Add
-In this lesson, we will learn how to use addition facts with sums to 20 to solve related problems with sums to 100.</t>
-  </si>
-  <si>
-    <t>Adding Numbers up to 5
-In this lesson, we will learn how to find the missing total in an addition equation when adding numbers up to 5.</t>
-  </si>
-  <si>
     <t>Adding One-Digit Numbers by Making Ten
 In this lesson, we will learn how to add two one-digit numbers by first making ten.</t>
   </si>
@@ -363,42 +359,42 @@
 In this lesson, we will learn how to solve one-step additive comparison problems with numbers up to 100 by drawing a comparative bar model.</t>
   </si>
   <si>
+    <t>Adding Decimals with Hundredths: Models
+In this lesson, we will learn how to use place value blocks or counters to model addition of decimals with two decimal places.</t>
+  </si>
+  <si>
+    <t>Number Patterns: Two-Digit Numbers
+In this lesson, we will learn how to find missing numbers in counting sequences and number patterns using addition and subtraction rules.</t>
+  </si>
+  <si>
+    <t>Making 5
+In this lesson, we will learn how to use pictures and addition equations to show all the different ways to make the number 5.</t>
+  </si>
+  <si>
+    <t>Subtracting by Adding with Numbers up to 20
+In this lesson, we will learn how to solve subtraction problems by finding the missing part in an addition expression with numbers up to 20.</t>
+  </si>
+  <si>
+    <t>Word Problems: Adding and Subtracting Money with Decimals
+In this lesson, we will learn how to solve addition and subtraction word problems with money in decimal notation by converting to pounds and pence.</t>
+  </si>
+  <si>
+    <t>Making 6 and 7
+In this lesson, we will learn how to use pictures and addition equations to show all the ways to make the numbers 6 and 7.</t>
+  </si>
+  <si>
+    <t>Evaluating Numerical Expressions: Distributive Property
+In this lesson, we will learn how to use the distributive property of multiplication for addition and subtraction to rewrite numerical expressions and evaluate them.</t>
+  </si>
+  <si>
+    <t>Subtracting by Adding with Numbers up to 10
+In this lesson, we will learn how to solve subtraction problems by finding the missing part in an addition expression with numbers up to 10.</t>
+  </si>
+  <si>
     <t>The Multiplication Symbol
 In this lesson, we will learn how to use the multiplication symbol to write multiplication expressions and link them to models and addition expressions.</t>
   </si>
   <si>
-    <t>Making 6 and 7
-In this lesson, we will learn how to use pictures and addition equations to show all the ways to make the numbers 6 and 7.</t>
-  </si>
-  <si>
-    <t>Evaluating Numerical Expressions: Distributive Property
-In this lesson, we will learn how to use the distributive property of multiplication for addition and subtraction to rewrite numerical expressions and evaluate them.</t>
-  </si>
-  <si>
-    <t>Adding Decimals with Hundredths: Models
-In this lesson, we will learn how to use place value blocks or counters to model addition of decimals with two decimal places.</t>
-  </si>
-  <si>
-    <t>Number Patterns: Two-Digit Numbers
-In this lesson, we will learn how to find missing numbers in counting sequences and number patterns using addition and subtraction rules.</t>
-  </si>
-  <si>
-    <t>Subtracting by Adding with Numbers up to 10
-In this lesson, we will learn how to solve subtraction problems by finding the missing part in an addition expression with numbers up to 10.</t>
-  </si>
-  <si>
-    <t>Subtracting by Adding with Numbers up to 20
-In this lesson, we will learn how to solve subtraction problems by finding the missing part in an addition expression with numbers up to 20.</t>
-  </si>
-  <si>
-    <t>Making 5
-In this lesson, we will learn how to use pictures and addition equations to show all the different ways to make the number 5.</t>
-  </si>
-  <si>
-    <t>Word Problems: Adding and Subtracting Money with Decimals
-In this lesson, we will learn how to solve addition and subtraction word problems with money in decimal notation by converting to pounds and pence.</t>
-  </si>
-  <si>
     <t>Calculating Wave Motion
 In this lesson, we will learn how to use the wave speed formula, s = fλ, to calculate the movement of waves of different frequencies and wavelengths.</t>
   </si>
@@ -415,16 +411,20 @@
 In this lesson, we will learn how to find and use the least squares regression line equation.</t>
   </si>
   <si>
+    <t>Column Addition of Three-Digit Numbers: Regroup Ones and Tens
+In this lesson, we will learn how to add two three-digit numbers when we have to regroup ones and tens and record the calculation in columns.</t>
+  </si>
+  <si>
+    <t>Making 3 and 4
+In this lesson, we will learn how to use pictures and addition equations to show all the different ways to make the numbers 3 and 4.</t>
+  </si>
+  <si>
+    <t>Two-Step Problems with Bar Models: Numbers up to 10,000
+In this lesson, we will learn how to solve two-step addition and subtraction problems by modeling them with bar models and writing equations.</t>
+  </si>
+  <si>
     <t>Distributive Property of Multiplication
 In this lesson, we will learn how to use the distributive property of multiplication to multiply numbers up to 10×10 by breaking the numbers apart.</t>
-  </si>
-  <si>
-    <t>Column Addition of Three-Digit Numbers: Regroup Ones and Tens
-In this lesson, we will learn how to add two three-digit numbers when we have to regroup ones and tens and record the calculation in columns.</t>
-  </si>
-  <si>
-    <t>Vector Operations in 2D
-In this lesson, we will learn how to perform operations on vectors algebraically such as vector addition, vector subtraction, and scalar multiplication in two dimensions.</t>
   </si>
 </sst>
 </file>
@@ -746,7 +746,7 @@
   <dimension ref="A1:A100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="G94" sqref="A1:XFD1048576"/>
+      <selection activeCell="C73" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -923,7 +923,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36">
@@ -933,7 +933,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38">
@@ -998,12 +998,12 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52">
@@ -1053,42 +1053,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69">

--- a/target/test-classes/utilities/LeasonsSearchingResult.xlsx
+++ b/target/test-classes/utilities/LeasonsSearchingResult.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2100" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2400" uniqueCount="101">
   <si>
     <t>Addition Polymerization
 In this lesson, we will learn how to define an addition polymerization and determine the structure of an addition polymer from the monomer reactant.</t>
@@ -1238,17 +1238,17 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
